--- a/database/industries/kaghaz/chekapa/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/kaghaz/chekapa/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B555C52E-A433-41FE-B0B2-6FCF5ED6C717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C921980C-8B4D-4077-8AEE-7D7FACA959DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>9 ماهه منتهی به 1399/05</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1399/08</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>12 ماهه منتهی به 1401/08</t>
   </si>
   <si>
+    <t>3 ماهه منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-06-31 (3)</t>
-  </si>
-  <si>
     <t>1400-12-09 (9)</t>
   </si>
   <si>
@@ -85,10 +82,10 @@
     <t>1401-06-30 (2)</t>
   </si>
   <si>
-    <t>1401-11-24 (8)</t>
-  </si>
-  <si>
-    <t>1400-12-28</t>
+    <t>1401-12-13 (9)</t>
+  </si>
+  <si>
+    <t>1401-12-28 (2)</t>
   </si>
   <si>
     <t>1401-05-12 (2)</t>
@@ -97,7 +94,10 @@
     <t>1401-06-30</t>
   </si>
   <si>
-    <t>1401-11-24</t>
+    <t>1401-12-28 (3)</t>
+  </si>
+  <si>
+    <t>1401-12-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -622,19 +622,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -648,7 +648,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,7 +664,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -694,7 +694,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -726,7 +726,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -740,7 +740,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -776,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -812,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,151 +826,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>18166</v>
+        <v>27763</v>
       </c>
       <c r="E11" s="13">
-        <v>27763</v>
+        <v>9228</v>
       </c>
       <c r="F11" s="13">
-        <v>9228</v>
+        <v>21405</v>
       </c>
       <c r="G11" s="13">
-        <v>21405</v>
+        <v>30356</v>
       </c>
       <c r="H11" s="13">
-        <v>30356</v>
+        <v>41236</v>
       </c>
       <c r="I11" s="13">
-        <v>41236</v>
+        <v>10313</v>
       </c>
       <c r="J11" s="13">
-        <v>10313</v>
+        <v>21622</v>
       </c>
       <c r="K11" s="13">
-        <v>21622</v>
+        <v>33951</v>
       </c>
       <c r="L11" s="13">
-        <v>33951</v>
+        <v>47467</v>
       </c>
       <c r="M11" s="13">
-        <v>47467</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>8815</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-10761</v>
+        <v>-17854</v>
       </c>
       <c r="E12" s="11">
-        <v>-17854</v>
+        <v>-5647</v>
       </c>
       <c r="F12" s="11">
-        <v>-5647</v>
+        <v>-13039</v>
       </c>
       <c r="G12" s="11">
-        <v>-13039</v>
+        <v>-19002</v>
       </c>
       <c r="H12" s="11">
-        <v>-19002</v>
+        <v>-29809</v>
       </c>
       <c r="I12" s="11">
-        <v>-29809</v>
+        <v>-6902</v>
       </c>
       <c r="J12" s="11">
-        <v>-6902</v>
+        <v>-14565</v>
       </c>
       <c r="K12" s="11">
-        <v>-14565</v>
+        <v>-23799</v>
       </c>
       <c r="L12" s="11">
-        <v>-23799</v>
+        <v>-35238</v>
       </c>
       <c r="M12" s="11">
-        <v>-35238</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-6345</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>7405</v>
+        <v>9909</v>
       </c>
       <c r="E13" s="15">
-        <v>9909</v>
+        <v>3581</v>
       </c>
       <c r="F13" s="15">
-        <v>3581</v>
+        <v>8365</v>
       </c>
       <c r="G13" s="15">
-        <v>8365</v>
+        <v>11354</v>
       </c>
       <c r="H13" s="15">
-        <v>11354</v>
+        <v>11428</v>
       </c>
       <c r="I13" s="15">
-        <v>11428</v>
+        <v>3411</v>
       </c>
       <c r="J13" s="15">
-        <v>3411</v>
+        <v>7058</v>
       </c>
       <c r="K13" s="15">
-        <v>7058</v>
+        <v>10152</v>
       </c>
       <c r="L13" s="15">
-        <v>10152</v>
+        <v>12229</v>
       </c>
       <c r="M13" s="15">
-        <v>12229</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-309</v>
+        <v>-640</v>
       </c>
       <c r="E14" s="11">
-        <v>-640</v>
+        <v>-115</v>
       </c>
       <c r="F14" s="11">
-        <v>-115</v>
+        <v>-667</v>
       </c>
       <c r="G14" s="11">
-        <v>-667</v>
+        <v>-463</v>
       </c>
       <c r="H14" s="11">
-        <v>-463</v>
+        <v>-1096</v>
       </c>
       <c r="I14" s="11">
-        <v>-1096</v>
+        <v>-148</v>
       </c>
       <c r="J14" s="11">
-        <v>-148</v>
+        <v>-871</v>
       </c>
       <c r="K14" s="11">
-        <v>-871</v>
+        <v>-894</v>
       </c>
       <c r="L14" s="11">
-        <v>-894</v>
+        <v>-1074</v>
       </c>
       <c r="M14" s="11">
-        <v>-1074</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-235</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1006,206 +1006,206 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-133</v>
+        <v>143</v>
       </c>
       <c r="E16" s="11">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="F16" s="11">
-        <v>9</v>
+        <v>-42</v>
       </c>
       <c r="G16" s="11">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
         <v>-119</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>31</v>
+      <c r="I16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="11">
+        <v>269</v>
       </c>
       <c r="K16" s="11">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="L16" s="11">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="M16" s="11">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>6963</v>
+        <v>9412</v>
       </c>
       <c r="E17" s="15">
-        <v>9412</v>
+        <v>3475</v>
       </c>
       <c r="F17" s="15">
-        <v>3475</v>
+        <v>7656</v>
       </c>
       <c r="G17" s="15">
-        <v>7656</v>
+        <v>10892</v>
       </c>
       <c r="H17" s="15">
-        <v>10892</v>
+        <v>10213</v>
       </c>
       <c r="I17" s="15">
-        <v>10213</v>
+        <v>3264</v>
       </c>
       <c r="J17" s="15">
-        <v>3264</v>
+        <v>6455</v>
       </c>
       <c r="K17" s="15">
-        <v>6455</v>
+        <v>9584</v>
       </c>
       <c r="L17" s="15">
-        <v>9584</v>
+        <v>11288</v>
       </c>
       <c r="M17" s="15">
-        <v>11288</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-1187</v>
+        <v>-1774</v>
       </c>
       <c r="E18" s="11">
-        <v>-1774</v>
+        <v>-588</v>
       </c>
       <c r="F18" s="11">
-        <v>-588</v>
+        <v>-1067</v>
       </c>
       <c r="G18" s="11">
-        <v>-1067</v>
+        <v>-1246</v>
       </c>
       <c r="H18" s="11">
-        <v>-1246</v>
+        <v>-2041</v>
       </c>
       <c r="I18" s="11">
-        <v>-2041</v>
+        <v>-503</v>
       </c>
       <c r="J18" s="11">
-        <v>-503</v>
+        <v>-998</v>
       </c>
       <c r="K18" s="11">
-        <v>-998</v>
+        <v>-1639</v>
       </c>
       <c r="L18" s="11">
-        <v>-1639</v>
+        <v>-2176</v>
       </c>
       <c r="M18" s="11">
-        <v>-2176</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-475</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>46</v>
+        <v>255</v>
       </c>
       <c r="E19" s="13">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="F19" s="13">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="G19" s="13">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="H19" s="13">
-        <v>65</v>
-      </c>
-      <c r="I19" s="13">
         <v>1801</v>
       </c>
+      <c r="I19" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="J19" s="13">
-        <v>92</v>
+        <v>233</v>
       </c>
       <c r="K19" s="13">
-        <v>233</v>
+        <v>315</v>
       </c>
       <c r="L19" s="13">
-        <v>315</v>
-      </c>
-      <c r="M19" s="13">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>5823</v>
+        <v>7893</v>
       </c>
       <c r="E20" s="17">
-        <v>7893</v>
+        <v>2888</v>
       </c>
       <c r="F20" s="17">
-        <v>2888</v>
+        <v>6740</v>
       </c>
       <c r="G20" s="17">
-        <v>6740</v>
+        <v>9711</v>
       </c>
       <c r="H20" s="17">
-        <v>9711</v>
+        <v>9973</v>
       </c>
       <c r="I20" s="17">
-        <v>9973</v>
+        <v>2760</v>
       </c>
       <c r="J20" s="17">
-        <v>2852</v>
+        <v>5690</v>
       </c>
       <c r="K20" s="17">
-        <v>5690</v>
+        <v>8260</v>
       </c>
       <c r="L20" s="17">
-        <v>8260</v>
+        <v>9255</v>
       </c>
       <c r="M20" s="17">
-        <v>9255</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-1282</v>
+        <v>-1503</v>
       </c>
       <c r="E21" s="13">
-        <v>-1503</v>
+        <v>-561</v>
       </c>
       <c r="F21" s="13">
-        <v>-561</v>
+        <v>-1546</v>
       </c>
       <c r="G21" s="13">
-        <v>-1546</v>
-      </c>
-      <c r="H21" s="13">
         <v>-1896</v>
       </c>
+      <c r="H21" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="I21" s="13" t="s">
         <v>31</v>
       </c>
@@ -1222,43 +1222,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>4540</v>
+        <v>6390</v>
       </c>
       <c r="E22" s="17">
-        <v>6390</v>
+        <v>2327</v>
       </c>
       <c r="F22" s="17">
-        <v>2327</v>
+        <v>5194</v>
       </c>
       <c r="G22" s="17">
-        <v>5194</v>
+        <v>7815</v>
       </c>
       <c r="H22" s="17">
-        <v>7815</v>
+        <v>9973</v>
       </c>
       <c r="I22" s="17">
-        <v>9973</v>
+        <v>2760</v>
       </c>
       <c r="J22" s="17">
-        <v>2852</v>
+        <v>5690</v>
       </c>
       <c r="K22" s="17">
-        <v>5690</v>
+        <v>8260</v>
       </c>
       <c r="L22" s="17">
-        <v>8260</v>
+        <v>9255</v>
       </c>
       <c r="M22" s="17">
-        <v>9255</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1294,43 +1294,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>4540</v>
+        <v>6390</v>
       </c>
       <c r="E24" s="17">
-        <v>6390</v>
+        <v>2327</v>
       </c>
       <c r="F24" s="17">
-        <v>2327</v>
+        <v>5194</v>
       </c>
       <c r="G24" s="17">
-        <v>5194</v>
+        <v>7815</v>
       </c>
       <c r="H24" s="17">
-        <v>7815</v>
+        <v>9973</v>
       </c>
       <c r="I24" s="17">
-        <v>9973</v>
+        <v>2760</v>
       </c>
       <c r="J24" s="17">
-        <v>2852</v>
+        <v>5690</v>
       </c>
       <c r="K24" s="17">
-        <v>5690</v>
+        <v>8260</v>
       </c>
       <c r="L24" s="17">
-        <v>8260</v>
+        <v>9255</v>
       </c>
       <c r="M24" s="17">
-        <v>9255</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1366,43 +1366,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>57710</v>
+        <v>49870</v>
       </c>
       <c r="E26" s="11">
-        <v>49870</v>
+        <v>37693</v>
       </c>
       <c r="F26" s="11">
-        <v>37693</v>
+        <v>38592</v>
       </c>
       <c r="G26" s="11">
-        <v>38592</v>
+        <v>38331</v>
       </c>
       <c r="H26" s="11">
-        <v>38331</v>
+        <v>37074</v>
       </c>
       <c r="I26" s="11">
-        <v>37074</v>
+        <v>32654</v>
       </c>
       <c r="J26" s="11">
-        <v>32654</v>
+        <v>33291</v>
       </c>
       <c r="K26" s="11">
-        <v>33291</v>
+        <v>32089</v>
       </c>
       <c r="L26" s="11">
-        <v>32089</v>
+        <v>31136</v>
       </c>
       <c r="M26" s="11">
-        <v>31136</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>22839</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
